--- a/public/cohort/fileExcel/xlsxUIT/ PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/ PTA en onderwijsprogramma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -93,34 +93,666 @@
     <t>header</t>
   </si>
   <si>
-    <t>niet in oude Excel openen. Op school / in Teams.</t>
-  </si>
-  <si>
-    <t>niet knippen?</t>
-  </si>
-  <si>
-    <t>wat betekent naam tabblad: hoe kun je het zien?</t>
-  </si>
-  <si>
-    <t>donkergroen alleen invullen als SE</t>
-  </si>
-  <si>
-    <t>geen vormgeving doen</t>
-  </si>
-  <si>
-    <t>tijd in minuten, geen toevoeging</t>
-  </si>
-  <si>
-    <t>laat niet relevante dingen open</t>
-  </si>
-  <si>
-    <t>niet formatten. Layouten doen wij.</t>
-  </si>
-  <si>
-    <t>zie je iets waarvan je denkt dat het niet klopt! Mail me.</t>
-  </si>
-  <si>
-    <t>structuur etc. moet nog weer beveiligd!</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">INSTRUCTIE </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">graag uw aandacht voor het volgende:</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar zijn we overgestapt van de invoer van PTA's via Word naar Excel. Dit was een eerste stap in een groter proces waarbij we toewillen naar het werken met volledige PTA-cohorten: PTA's waarin alle leerjaren van een examengroep staan beschreven. Dit nieuwe invoerdocument is een uitwerking daarvan.</t>
+  </si>
+  <si>
+    <t>COHORTEN en COHORTJAREN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dit document zie je tabbladen met namen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">H 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 en VWO-4). Voor </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> gaat het dus om de atheneum-groep die in het schooljaar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2019-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 4 zat, in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2020-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 5 en in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2021-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 6. Het volledige </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> is dan de periode 2019-2022. Het betreft hier dus de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Als je klikt op een tabblad wordt dit vermeld.</t>
+    </r>
+  </si>
+  <si>
+    <t>SCHRIJFRECHT en leesrecht: CONTROLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Voor de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn de leerjaren 4 en 5 van het PTA al voorbij en uitgevoerd. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF5B9BD5"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Wil je controleren of de gegevens van het huidige schooljaar juist zijn?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Klopt er iets niet? Stuur dan een mailtje naar VNR. Velden voor het komende schooljaar zijn wel beschrijfbaar. Hier vul je het PTA verder in. Net als vorig jaar verwachten we het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">volledige onderwijsprogramma</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">HEEL BELANGRIJK: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">do's &amp; don'ts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lees dit gedeelte echt even goed door. Vorig jaar hebben we veel nawerk gehad door </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">afwijkende invoer</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Open hem op je schoollaptop of een werkstation op school </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">vanuit Teams</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Download het bestand dus </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Let daarnaast bij de over op de volgende punten:</t>
+    </r>
+  </si>
+  <si>
+    <t>overzicht aandachtspunten bij het werken met dit document</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>De groene velden zijn beschrijfbaar. De donkergroene velden hoef je alleen in te vullen als er sprake is van een PTA-onderdeel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wil je iets verplaatsen? Ga alsjeblieft </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet knippen</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (geen Ctrl-x). Daarmee verwijder je namelijk ook voor jou onzichtbare onderdelen. In plaats daarvan: het meest veilig is even overschrijven, maar als je toch wilt kopiëren: kies dan in het nieuwe veld voor het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">plakken van waarden</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en delete vervolgens de inhoud van de velden die moeten worden geleegd.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar hebben secties soms zelf geprobeerd hun PTA te layouten binnen Excel met b.v. spaties. Doe dit niet. Het PTA wordt uiteindelijk als PDF afgedrukt in een andere layout. Zelf aanpassen heeft dus geen zin, maar zorgt wel voor problemen bij de verdere verwerking!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De kolommen </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging VD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging SE</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">duur</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">numeriek</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Vul hier alleen getallen in (en dus niet dingen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">100 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">min</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, etc.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -128,7 +760,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -152,6 +784,15 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFD8D8D8"/>
       <name val="Calibri"/>
@@ -166,16 +807,34 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF44546A"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -239,8 +904,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="medium">
@@ -256,11 +927,25 @@
         <color rgb="FFC00000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEEAF6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEEAF6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEEAF6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEEAF6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -273,35 +958,56 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="10" zoomScaleNormal="10" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,7 +1361,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -670,7 +1376,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -684,7 +1390,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -698,7 +1404,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -707,31 +1413,31 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -739,7 +1445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOf0LQsboE6wZUxhTrp6vWUPTX/PxW+vApAM6zdPOcGfqvqNuFNYmJEfEBPc31Vp+JEs0x9YELJOz7LGwIuUbA==" saltValue="ss5ASBCr8o3o1bhwu9U1Vw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -759,66 +1465,149 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="true" style="4"/>
+    <col min="2" max="2" width="95.140625" customWidth="true" style="4"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="4"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" customHeight="1" ht="74.25">
+      <c r="B2" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" customHeight="1" ht="106.5">
+      <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" customHeight="1" ht="161.25">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" customHeight="1" ht="107.25">
+      <c r="B8" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+    <row r="10" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="14" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customHeight="1" ht="51.75">
+      <c r="A12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mV7BNsQoFesF/gHTqLwFID77XCVLa9wfBt+/qI6NBt8ZJQTq+zXXlgMeU+Yap4FYo3SfLn1U8mRQOMZH2GCMGQ==" saltValue="vl1+j0HvtxTC7FXpJM93Ug==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
